--- a/flask/app/static/files/historial_solicitudes.xlsx
+++ b/flask/app/static/files/historial_solicitudes.xlsx
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
@@ -478,17 +478,23 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>44059.53150462963</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>44061.77083333334</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>44062.5589699074</v>
+      </c>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n">
         <v>0</v>
@@ -500,7 +506,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -514,23 +520,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>44059.53150462963</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>44061.77083333334</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>44062.5589699074</v>
-      </c>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n">
         <v>0</v>
@@ -539,35 +539,37 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
+      <c r="J5" s="3" t="n">
+        <v>44061.77083333334</v>
+      </c>
       <c r="K5" s="2" t="n">
         <v>0</v>
       </c>
@@ -575,37 +577,41 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="3" t="n">
-        <v>44061.77083333334</v>
-      </c>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>44051.68668981481</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>44055.77083333334</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>44056.53417824074</v>
+      </c>
+      <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n">
         <v>0</v>
       </c>
@@ -616,7 +622,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -630,7 +636,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -639,13 +645,13 @@
         </is>
       </c>
       <c r="G7" s="3" t="n">
-        <v>44051.68668981481</v>
+        <v>44051.6865625</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>44055.77083333334</v>
+        <v>44053.77083333334</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>44056.53417824074</v>
+        <v>44053.79626157408</v>
       </c>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n">
@@ -655,19 +661,19 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>196465448</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Lorenzo Andrés Alfaro Bravo</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -677,18 +683,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>44051.6865625</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>44053.77083333334</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>44053.79626157408</v>
-      </c>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n">
         <v>0</v>
@@ -697,34 +697,40 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>196465448</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Lorenzo Andrés Alfaro Bravo</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>44051.54168981482</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>44051.77083333334</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>44051.54444444444</v>
+      </c>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n">
         <v>0</v>
@@ -736,7 +742,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
@@ -750,23 +756,17 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>44051.54168981482</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>44051.77083333334</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>44051.54444444444</v>
-      </c>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
@@ -828,17 +828,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>44051.54616898148</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>44051.77083333334</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>44051.6753587963</v>
+      </c>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n">
         <v>0</v>
@@ -847,41 +853,37 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>44051.54616898148</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>44051.77083333334</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>44051.6753587963</v>
-      </c>
-      <c r="J13" s="2" t="n"/>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="3" t="n">
+        <v>44050.77083333334</v>
+      </c>
       <c r="K13" s="2" t="n">
         <v>0</v>
       </c>
@@ -892,7 +894,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
@@ -906,20 +908,18 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
       <c r="I14" s="2" t="n"/>
-      <c r="J14" s="3" t="n">
-        <v>44050.77083333334</v>
-      </c>
+      <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n">
         <v>0</v>
       </c>
@@ -927,10 +927,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
@@ -980,17 +980,23 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>44049.70165509259</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>44049.70182870371</v>
+      </c>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n">
         <v>0</v>
@@ -1002,7 +1008,7 @@
         <v>59</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
@@ -1016,7 +1022,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1025,13 +1031,13 @@
         </is>
       </c>
       <c r="G17" s="3" t="n">
-        <v>44049.70165509259</v>
+        <v>44049.70042824074</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>44049.77083333334</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>44049.70182870371</v>
+        <v>44049.70115740741</v>
       </c>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n">
@@ -1044,7 +1050,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
@@ -1058,23 +1064,17 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>44049.70042824074</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>44049.77083333334</v>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>44049.70115740741</v>
-      </c>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n">
         <v>0</v>
@@ -1083,24 +1083,24 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1119,10 +1119,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
@@ -1172,18 +1172,20 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Notebook Asus 636-5</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="G21" s="2" t="n"/>
       <c r="H21" s="2" t="n"/>
       <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
+      <c r="J21" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
       <c r="K21" s="2" t="n">
         <v>0</v>
       </c>
@@ -1191,10 +1193,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
@@ -1208,20 +1210,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="G22" s="2" t="n"/>
       <c r="H22" s="2" t="n"/>
       <c r="I22" s="2" t="n"/>
-      <c r="J22" s="3" t="n">
-        <v>44049.77083333334</v>
-      </c>
+      <c r="J22" s="2" t="n"/>
       <c r="K22" s="2" t="n">
         <v>0</v>
       </c>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
@@ -1246,18 +1246,20 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="G23" s="2" t="n"/>
       <c r="H23" s="2" t="n"/>
       <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
+      <c r="J23" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
       <c r="K23" s="2" t="n">
         <v>0</v>
       </c>
@@ -1265,37 +1267,41 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="3" t="n">
-        <v>44049.77083333334</v>
-      </c>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>44048.15038194445</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>44060.77083333334</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>44048.15122685185</v>
+      </c>
+      <c r="J24" s="2" t="n"/>
       <c r="K24" s="2" t="n">
         <v>0</v>
       </c>
@@ -1303,19 +1309,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1329,13 +1335,13 @@
         </is>
       </c>
       <c r="G25" s="3" t="n">
-        <v>44048.15038194445</v>
+        <v>44044.60060185185</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>44060.77083333334</v>
+        <v>44050.77083333334</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>44048.15122685185</v>
+        <v>44050.4495949074</v>
       </c>
       <c r="J25" s="2" t="n"/>
       <c r="K25" s="2" t="n">
@@ -1345,10 +1351,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
@@ -1362,23 +1368,17 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>44044.60060185185</v>
-      </c>
-      <c r="H26" s="3" t="n">
-        <v>44050.77083333334</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>44050.4495949074</v>
-      </c>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
       <c r="J26" s="2" t="n"/>
       <c r="K26" s="2" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
@@ -1404,17 +1404,23 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Notebook Asus 636-5</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>44044.58331018518</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>44050.45241898148</v>
+      </c>
       <c r="J27" s="2" t="n"/>
       <c r="K27" s="2" t="n">
         <v>0</v>
@@ -1423,10 +1429,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
@@ -1440,7 +1446,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1449,13 +1455,13 @@
         </is>
       </c>
       <c r="G28" s="3" t="n">
-        <v>44044.58331018518</v>
+        <v>44044.58068287037</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>44049.77083333334</v>
+        <v>44046.77083333334</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>44050.45241898148</v>
+        <v>44049.5865162037</v>
       </c>
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="2" t="n">
@@ -1465,10 +1471,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
@@ -1482,7 +1488,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -1491,13 +1497,13 @@
         </is>
       </c>
       <c r="G29" s="3" t="n">
-        <v>44044.58068287037</v>
+        <v>44044.57987268519</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>44046.77083333334</v>
+        <v>44048.77083333334</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>44049.5865162037</v>
+        <v>44049.66491898148</v>
       </c>
       <c r="J29" s="2" t="n"/>
       <c r="K29" s="2" t="n">
@@ -1510,7 +1516,7 @@
         <v>48</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
@@ -1524,7 +1530,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -1536,10 +1542,10 @@
         <v>44044.57987268519</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>44048.77083333334</v>
+        <v>44056.77083333334</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>44049.66491898148</v>
+        <v>44059.50581018518</v>
       </c>
       <c r="J30" s="2" t="n"/>
       <c r="K30" s="2" t="n">
@@ -1549,40 +1555,34 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>44044.57987268519</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>44056.77083333334</v>
-      </c>
-      <c r="I31" s="3" t="n">
-        <v>44059.50581018518</v>
-      </c>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
       <c r="J31" s="2" t="n"/>
       <c r="K31" s="2" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>47</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -1738,7 +1738,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Notebook Asus 636-5</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -1771,29 +1771,29 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="G37" s="2" t="n"/>
@@ -1810,7 +1810,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
@@ -1824,17 +1824,23 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n"/>
-      <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="n"/>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>44043.98478009259</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>44043.81805555556</v>
+      </c>
       <c r="J38" s="2" t="n"/>
       <c r="K38" s="2" t="n">
         <v>0</v>
@@ -1843,10 +1849,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
@@ -1865,18 +1871,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>44043.98478009259</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>44043.75</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>44043.81805555556</v>
-      </c>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
       <c r="J39" s="2" t="n"/>
       <c r="K39" s="2" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
@@ -1902,17 +1902,23 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-      <c r="I40" s="2" t="n"/>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>44043.97052083333</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>44053.75</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>44043.97069444445</v>
+      </c>
       <c r="J40" s="2" t="n"/>
       <c r="K40" s="2" t="n">
         <v>0</v>
@@ -1921,10 +1927,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
@@ -1938,23 +1944,17 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>44043.97052083333</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>44053.75</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>44043.97069444445</v>
-      </c>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
       <c r="J41" s="2" t="n"/>
       <c r="K41" s="2" t="n">
         <v>0</v>
@@ -1963,24 +1963,24 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
@@ -2002,7 +2002,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
@@ -2124,18 +2124,20 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="G46" s="2" t="n"/>
       <c r="H46" s="2" t="n"/>
       <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
+      <c r="J46" s="3" t="n">
+        <v>44041</v>
+      </c>
       <c r="K46" s="2" t="n">
         <v>0</v>
       </c>
@@ -2143,10 +2145,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
@@ -2160,66 +2162,28 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="n"/>
-      <c r="H47" s="2" t="n"/>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="3" t="n">
-        <v>44041</v>
-      </c>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>44041.55918981481</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>44041.75</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>44049.58769675926</v>
+      </c>
+      <c r="J47" s="2" t="n"/>
       <c r="K47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L47" s="2" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>19889608K</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>Sebastián Ignacio Toro Severino</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>Drone Parrot Bebop 2</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G48" s="3" t="n">
-        <v>44041.55918981481</v>
-      </c>
-      <c r="H48" s="3" t="n">
-        <v>44041.75</v>
-      </c>
-      <c r="I48" s="3" t="n">
-        <v>44049.58769675926</v>
-      </c>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/flask/app/static/files/historial_solicitudes.xlsx
+++ b/flask/app/static/files/historial_solicitudes.xlsx
@@ -74,9 +74,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -374,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,13 +393,16 @@
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
     <col width="31" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="24" customWidth="1" min="11" max="11"/>
-    <col width="23" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="24" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -425,46 +434,61 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
+          <t>Código de equipo</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de registro</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Fecha de inicio</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Fecha de término</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>Fecha de devolución</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>Fecha de vencimiento</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de rechazo</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de cancelación</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>Cantidad de renovaciones</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>Código sufijo de equipo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
@@ -473,40 +497,45 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>44059.53150462963</v>
+          <t>AAA192</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>44061.77083333334</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>44062.5589699074</v>
-      </c>
+        <v>44064.58678240741</v>
+      </c>
+      <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="3" t="n">
+        <v>44064.58886574074</v>
+      </c>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -515,34 +544,47 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
+          <t>AAA192</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>44064.58678240741</v>
+      </c>
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="3" t="n">
+        <v>44072.77083333334</v>
+      </c>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="3" t="n">
+        <v>44064.58971064815</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
@@ -556,124 +598,143 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+          <t>AAA192</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>44063.41482638889</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>44063.41962962963</v>
+      </c>
       <c r="J5" s="3" t="n">
-        <v>44061.77083333334</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
+        <v>44064.77083333334</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>44064.56608796296</v>
       </c>
       <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>44051.68668981481</v>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>44055.77083333334</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>44056.53417824074</v>
-      </c>
+        <v>44063.41482638889</v>
+      </c>
+      <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>44051.6865625</v>
+          <t>AAA192</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>44053.77083333334</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>44053.79626157408</v>
-      </c>
+        <v>44063.41482638889</v>
+      </c>
+      <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>196465448</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Lorenzo Andrés Alfaro Bravo</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -683,28 +744,43 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n">
-        <v>0</v>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>44062.7699537037</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>44063.58475694444</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>44063.77083333334</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>44063.59297453704</v>
       </c>
       <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -714,39 +790,48 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>Finalizada</t>
         </is>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>44051.54168981482</v>
-      </c>
       <c r="H9" s="3" t="n">
-        <v>44051.77083333334</v>
+        <v>44059.5640162037</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>44051.54444444444</v>
-      </c>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
+        <v>44059.5640162037</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>44077.77083333334</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>44064.57136574074</v>
       </c>
       <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -756,33 +841,48 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n">
-        <v>0</v>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>44059.5640162037</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>44059.5640162037</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>44070.77083333334</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>44063.56040509259</v>
       </c>
       <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -792,33 +892,48 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>44058.52341435185</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>44059.53150462963</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>44061.77083333334</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>44062.5589699074</v>
       </c>
       <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -828,73 +943,85 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>44051.54616898148</v>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>44051.77083333334</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>44051.6753587963</v>
-      </c>
+        <v>44058.52341435185</v>
+      </c>
+      <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>Cancelada</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
+      <c r="H13" s="3" t="n">
+        <v>44053.78693287037</v>
+      </c>
       <c r="I13" s="2" t="n"/>
-      <c r="J13" s="3" t="n">
-        <v>44050.77083333334</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="3" t="n">
+        <v>44061.77083333334</v>
+      </c>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
@@ -903,34 +1030,49 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n">
-        <v>0</v>
+          <t>AAA192</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>44051.64317129629</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>44051.68668981481</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>44055.77083333334</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>44056.53417824074</v>
       </c>
       <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
@@ -939,85 +1081,103 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n">
-        <v>0</v>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>44051.64317129629</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>44051.6865625</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>44053.77083333334</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>44053.79626157408</v>
       </c>
       <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>196465448</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Lorenzo Andrés Alfaro Bravo</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>44049.70165509259</v>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>44049.77083333334</v>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>44049.70182870371</v>
-      </c>
+        <v>44050.54297453703</v>
+      </c>
+      <c r="I16" s="2" t="n"/>
       <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1027,66 +1187,78 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>44049.70042824074</v>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>44049.77083333334</v>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>44049.70115740741</v>
-      </c>
+        <v>44050.46001157408</v>
+      </c>
+      <c r="I17" s="2" t="n"/>
       <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Toro</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>Rechazada</t>
         </is>
       </c>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
+      <c r="H18" s="3" t="n">
+        <v>44050.46001157408</v>
+      </c>
       <c r="I18" s="2" t="n"/>
       <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
@@ -1100,29 +1272,44 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Notebook Asus 636-5</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n">
-        <v>0</v>
+          <t>AAA192</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>44050.46001157408</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>44051.54616898148</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>44051.77083333334</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>44051.6753587963</v>
       </c>
       <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
@@ -1136,33 +1323,48 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Notebook Asus 636-5</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n">
-        <v>0</v>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>44050.46001157408</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>44051.54168981482</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>44051.77083333334</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>44051.54444444444</v>
       </c>
       <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1172,35 +1374,42 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>44049.70388888889</v>
+      </c>
       <c r="I21" s="2" t="n"/>
-      <c r="J21" s="3" t="n">
-        <v>44049.77083333334</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
       <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1215,28 +1424,39 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>44049.70388888889</v>
+      </c>
       <c r="I22" s="2" t="n"/>
       <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="3" t="n">
+        <v>44050.77083333334</v>
+      </c>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1246,77 +1466,93 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>44049.68787037037</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>44049.70042824074</v>
+      </c>
       <c r="J23" s="3" t="n">
         <v>44049.77083333334</v>
       </c>
-      <c r="K23" s="2" t="n">
-        <v>0</v>
+      <c r="K23" s="3" t="n">
+        <v>44049.70115740741</v>
       </c>
       <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="n">
-        <v>44048.15038194445</v>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>44060.77083333334</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>44048.15122685185</v>
-      </c>
+        <v>44049.68787037037</v>
+      </c>
+      <c r="I24" s="2" t="n"/>
       <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K24" s="2" t="n"/>
       <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1331,34 +1567,43 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
           <t>Finalizada</t>
         </is>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>44044.60060185185</v>
-      </c>
       <c r="H25" s="3" t="n">
-        <v>44050.77083333334</v>
+        <v>44049.68787037037</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>44050.4495949074</v>
-      </c>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n">
-        <v>0</v>
+        <v>44049.70165509259</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>44049.70182870371</v>
       </c>
       <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1368,29 +1613,38 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Notebook Asus 636-5</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
           <t>Rechazada</t>
         </is>
       </c>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
+      <c r="H26" s="3" t="n">
+        <v>44049.68787037037</v>
+      </c>
       <c r="I26" s="2" t="n"/>
       <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K26" s="2" t="n"/>
       <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
@@ -1404,35 +1658,38 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="n">
-        <v>44044.58331018518</v>
+          <t>ZZZZZZ</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>44049.77083333334</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>44050.45241898148</v>
-      </c>
+        <v>44047.92210648148</v>
+      </c>
+      <c r="I27" s="2" t="n"/>
       <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K27" s="2" t="n"/>
       <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
@@ -1446,35 +1703,38 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>44044.58068287037</v>
+          <t>ZZZZZZ</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>44046.77083333334</v>
-      </c>
-      <c r="I28" s="3" t="n">
-        <v>44049.5865162037</v>
-      </c>
+        <v>44047.57730324074</v>
+      </c>
+      <c r="I28" s="2" t="n"/>
       <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K28" s="2" t="n"/>
       <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
@@ -1488,35 +1748,40 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="n">
-        <v>44044.57987268519</v>
+          <t>AAA192</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>44048.77083333334</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>44049.66491898148</v>
-      </c>
+        <v>44047.57011574074</v>
+      </c>
+      <c r="I29" s="2" t="n"/>
       <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
@@ -1535,66 +1800,80 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="n">
-        <v>44044.57987268519</v>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>44056.77083333334</v>
-      </c>
-      <c r="I30" s="3" t="n">
-        <v>44059.50581018518</v>
-      </c>
+        <v>44047.53828703704</v>
+      </c>
+      <c r="I30" s="2" t="n"/>
       <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K30" s="2" t="n"/>
       <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
           <t>Cancelada</t>
         </is>
       </c>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
+      <c r="H31" s="3" t="n">
+        <v>44046.57371527778</v>
+      </c>
       <c r="I31" s="2" t="n"/>
       <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
@@ -1613,33 +1892,48 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n">
-        <v>0</v>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>44045.16469907408</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>44048.15038194445</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>44060.77083333334</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>44048.15122685185</v>
       </c>
       <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1649,441 +1943,567 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n">
-        <v>0</v>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>44044.60060185185</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>44044.60060185185</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>44050.77083333334</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>44050.4495949074</v>
       </c>
       <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
+          <t>ZZZZZZ</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>44044.58608796296</v>
+      </c>
       <c r="I34" s="2" t="n"/>
       <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K34" s="2" t="n"/>
       <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Notebook Asus 636-5</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n">
-        <v>0</v>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>44044.58331018518</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>44044.58331018518</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>44050.45241898148</v>
       </c>
       <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n">
-        <v>0</v>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>44044.58068287037</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>44044.58068287037</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>44046.77083333334</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>44049.5865162037</v>
       </c>
       <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n">
-        <v>0</v>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>44044.57987268519</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>44044.57987268519</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>44048.77083333334</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>44049.66491898148</v>
       </c>
       <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
           <t>Finalizada</t>
         </is>
       </c>
-      <c r="G38" s="3" t="n">
-        <v>44043.98478009259</v>
-      </c>
       <c r="H38" s="3" t="n">
-        <v>44043.75</v>
+        <v>44044.57987268519</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>44043.81805555556</v>
-      </c>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n">
-        <v>0</v>
+        <v>44044.57987268519</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>44056.77083333334</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>44059.50581018518</v>
       </c>
       <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>44044.14667824074</v>
+      </c>
       <c r="I39" s="2" t="n"/>
       <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K39" s="2" t="n"/>
       <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
-        </is>
-      </c>
-      <c r="G40" s="3" t="n">
-        <v>44043.97052083333</v>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>44053.75</v>
-      </c>
-      <c r="I40" s="3" t="n">
-        <v>44043.97069444445</v>
-      </c>
+        <v>44044.14667824074</v>
+      </c>
+      <c r="I40" s="2" t="n"/>
       <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K40" s="2" t="n"/>
       <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>44044.14667824074</v>
+      </c>
       <c r="I41" s="2" t="n"/>
       <c r="J41" s="2" t="n"/>
-      <c r="K41" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K41" s="2" t="n"/>
       <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>44044.14667824074</v>
+      </c>
       <c r="I42" s="2" t="n"/>
       <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K42" s="2" t="n"/>
       <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>44044.13378472222</v>
+      </c>
       <c r="I43" s="2" t="n"/>
       <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K43" s="2" t="n"/>
       <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
+          <t>ZZZZZZ</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>44044.13378472222</v>
+      </c>
       <c r="I44" s="2" t="n"/>
       <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -2093,33 +2513,42 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
           <t>Rechazada</t>
         </is>
       </c>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
+      <c r="H45" s="3" t="n">
+        <v>44043.85885416667</v>
+      </c>
       <c r="I45" s="2" t="n"/>
       <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -2129,61 +2558,451 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="n"/>
-      <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="n"/>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>44043.85885416667</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>44043.98478009259</v>
+      </c>
       <c r="J46" s="3" t="n">
-        <v>44041</v>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>0</v>
+        <v>44043.75</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>44043.81805555556</v>
       </c>
       <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Matías Severino</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Placa Raspberry Raspberry Pi B+</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>AAA192</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>44043.8446412037</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>44043.97052083333</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>44053.75</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>44043.97069444445</v>
+      </c>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Matías Severino</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Celular Samsung Galaxy S4</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>44043.8446412037</v>
+      </c>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Matías Severino</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Celular Samsung Galaxy S4</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>44043.56954861111</v>
+      </c>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>44040.55811342593</v>
+      </c>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>44040.55811342593</v>
+      </c>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Router TP-LONK TL-WN722N</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>44036.7565625</v>
+      </c>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Router TP-LONK TL-WN722N</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>44036.7565625</v>
+      </c>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Celular Samsung Galaxy S4</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>44034.6940625</v>
+      </c>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="3" t="n">
+        <v>44041</v>
+      </c>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B55" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="C47" s="2" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>19889608K</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>Sebastián Ignacio Toro Severino</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>Finalizada</t>
         </is>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="H55" s="3" t="n">
+        <v>44031.83824074074</v>
+      </c>
+      <c r="I55" s="3" t="n">
         <v>44041.55918981481</v>
       </c>
-      <c r="H47" s="3" t="n">
+      <c r="J55" s="3" t="n">
         <v>44041.75</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="K55" s="3" t="n">
         <v>44049.58769675926</v>
       </c>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/flask/app/static/files/historial_solicitudes.xlsx
+++ b/flask/app/static/files/historial_solicitudes.xlsx
@@ -584,7 +584,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
@@ -608,21 +608,15 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
         <v>44063.41482638889</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>44063.41962962963</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>44064.77083333334</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>44064.56608796296</v>
-      </c>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
@@ -635,7 +629,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
@@ -649,25 +643,31 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
         <v>44063.41482638889</v>
       </c>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
+      <c r="I6" s="3" t="n">
+        <v>44063.41962962963</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>44064.77083333334</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>44064.56608796296</v>
+      </c>
       <c r="L6" s="2" t="n"/>
       <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
@@ -680,7 +680,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -694,12 +694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>AAA192</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1168,7 +1168,7 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
@@ -1192,15 +1192,21 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
         <v>44050.46001157408</v>
       </c>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
+      <c r="I17" s="3" t="n">
+        <v>44051.54168981482</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>44051.77083333334</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>44051.54444444444</v>
+      </c>
       <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="n"/>
       <c r="N17" s="2" t="n"/>
@@ -1213,7 +1219,7 @@
         <v>63</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
@@ -1227,12 +1233,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>AAD832</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1258,7 +1264,7 @@
         <v>63</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
@@ -1272,31 +1278,25 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>AAA192</t>
+          <t>AA431</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H19" s="3" t="n">
         <v>44050.46001157408</v>
       </c>
-      <c r="I19" s="3" t="n">
-        <v>44051.54616898148</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>44051.77083333334</v>
-      </c>
-      <c r="K19" s="3" t="n">
-        <v>44051.6753587963</v>
-      </c>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="n"/>
       <c r="M19" s="2" t="n"/>
       <c r="N19" s="2" t="n"/>
@@ -1309,7 +1309,7 @@
         <v>63</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1340,13 +1340,13 @@
         <v>44050.46001157408</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>44051.54168981482</v>
+        <v>44051.54616898148</v>
       </c>
       <c r="J20" s="3" t="n">
         <v>44051.77083333334</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>44051.54444444444</v>
+        <v>44051.6753587963</v>
       </c>
       <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="n"/>
@@ -1452,7 +1452,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
@@ -1466,12 +1466,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1483,13 +1483,13 @@
         <v>44049.68787037037</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>44049.70042824074</v>
+        <v>44049.70165509259</v>
       </c>
       <c r="J23" s="3" t="n">
         <v>44049.77083333334</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>44049.70115740741</v>
+        <v>44049.70182870371</v>
       </c>
       <c r="L23" s="2" t="n"/>
       <c r="M23" s="2" t="n"/>
@@ -1503,7 +1503,7 @@
         <v>59</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
@@ -1517,12 +1517,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1548,7 +1548,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
@@ -1562,12 +1562,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AAD832</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1579,13 +1579,13 @@
         <v>44049.68787037037</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>44049.70165509259</v>
+        <v>44049.70042824074</v>
       </c>
       <c r="J25" s="3" t="n">
         <v>44049.77083333334</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>44049.70182870371</v>
+        <v>44049.70115740741</v>
       </c>
       <c r="L25" s="2" t="n"/>
       <c r="M25" s="2" t="n"/>
@@ -1599,7 +1599,7 @@
         <v>59</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
@@ -1613,12 +1613,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AA431</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2224,7 +2224,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>47</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
@@ -2508,25 +2508,31 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AAD832</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H45" s="3" t="n">
         <v>44043.85885416667</v>
       </c>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
+      <c r="I45" s="3" t="n">
+        <v>44043.98478009259</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>44043.81805555556</v>
+      </c>
       <c r="L45" s="2" t="n"/>
       <c r="M45" s="2" t="n"/>
       <c r="N45" s="2" t="n"/>
@@ -2539,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
@@ -2553,31 +2559,25 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H46" s="3" t="n">
         <v>44043.85885416667</v>
       </c>
-      <c r="I46" s="3" t="n">
-        <v>44043.98478009259</v>
-      </c>
-      <c r="J46" s="3" t="n">
-        <v>44043.75</v>
-      </c>
-      <c r="K46" s="3" t="n">
-        <v>44043.81805555556</v>
-      </c>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
       <c r="L46" s="2" t="n"/>
       <c r="M46" s="2" t="n"/>
       <c r="N46" s="2" t="n"/>
@@ -2731,7 +2731,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>

--- a/flask/app/static/files/historial_solicitudes.xlsx
+++ b/flask/app/static/files/historial_solicitudes.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
@@ -497,45 +497,47 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>AAA192</t>
+          <t>ABC432</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>44064.58678240741</v>
+        <v>44068.01730324074</v>
       </c>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="3" t="n">
-        <v>44064.58886574074</v>
-      </c>
-      <c r="N3" s="2" t="n"/>
+      <c r="L3" s="3" t="n">
+        <v>44069.77083333334</v>
+      </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="3" t="n">
+        <v>44068.02151620371</v>
+      </c>
       <c r="O3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -544,81 +546,81 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>AAA192</t>
+          <t>ZZZZZZ</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>44064.58678240741</v>
+        <v>44068.01424768518</v>
       </c>
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="3" t="n">
-        <v>44072.77083333334</v>
-      </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="3" t="n">
-        <v>44064.58971064815</v>
-      </c>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="3" t="n">
+        <v>44068.01609953704</v>
+      </c>
+      <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Prueba Prueba Prueba</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>AAA192</t>
+          <t>AAA169</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>44063.41482638889</v>
+        <v>44068.01424768518</v>
       </c>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
+      <c r="M5" s="3" t="n">
+        <v>44068.01502314815</v>
+      </c>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n">
         <v>0</v>
@@ -626,19 +628,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -653,23 +655,19 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>44063.41482638889</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>44063.41962962963</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>44064.77083333334</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>44064.56608796296</v>
-      </c>
+        <v>44068.01424768518</v>
+      </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
+      <c r="M6" s="3" t="n">
+        <v>44068.01634259259</v>
+      </c>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n">
         <v>0</v>
@@ -677,44 +675,46 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>44063.41482638889</v>
+        <v>44068.00587962963</v>
       </c>
       <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="n"/>
+      <c r="M7" s="3" t="n">
+        <v>44068.00798611111</v>
+      </c>
       <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n">
         <v>0</v>
@@ -722,50 +722,46 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>ABC432</t>
+          <t>ZZZZZZ</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>44062.7699537037</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>44063.58475694444</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>44063.77083333334</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>44063.59297453704</v>
-      </c>
+        <v>44066.77841435185</v>
+      </c>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
+      <c r="M8" s="3" t="n">
+        <v>44066.78075231481</v>
+      </c>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n">
         <v>0</v>
@@ -773,10 +769,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -785,49 +781,45 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>ABC432</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>44059.5640162037</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>44059.5640162037</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>44077.77083333334</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>44064.57136574074</v>
-      </c>
+        <v>44064.58678240741</v>
+      </c>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
+      <c r="M9" s="3" t="n">
+        <v>44064.58886574074</v>
+      </c>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
@@ -836,53 +828,51 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>ABC432</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>44059.5640162037</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>44059.5640162037</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>44070.77083333334</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>44063.56040509259</v>
-      </c>
-      <c r="L10" s="2" t="n"/>
+        <v>44064.58678240741</v>
+      </c>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="3" t="n">
+        <v>44072.77083333334</v>
+      </c>
       <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
+      <c r="N10" s="3" t="n">
+        <v>44064.58971064815</v>
+      </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +882,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -906,16 +896,16 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>44058.52341435185</v>
+        <v>44063.41482638889</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>44059.53150462963</v>
+        <v>44063.41962962963</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>44061.77083333334</v>
+        <v>44064.77083333334</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>44062.5589699074</v>
+        <v>44064.56608796296</v>
       </c>
       <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="n"/>
@@ -926,14 +916,14 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -943,21 +933,21 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>44058.52341435185</v>
+        <v>44063.41482638889</v>
       </c>
       <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n"/>
@@ -971,10 +961,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
@@ -988,12 +978,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1002,14 +992,12 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>44053.78693287037</v>
+        <v>44063.41482638889</v>
       </c>
       <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
-      <c r="L13" s="3" t="n">
-        <v>44061.77083333334</v>
-      </c>
+      <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="n"/>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n">
@@ -1018,14 +1006,14 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1035,12 +1023,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>AAA192</t>
+          <t>ABC432</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1049,16 +1037,16 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>44051.64317129629</v>
+        <v>44062.7699537037</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>44051.68668981481</v>
+        <v>44063.58475694444</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>44055.77083333334</v>
+        <v>44063.77083333334</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>44056.53417824074</v>
+        <v>44063.59297453704</v>
       </c>
       <c r="L14" s="2" t="n"/>
       <c r="M14" s="2" t="n"/>
@@ -1069,10 +1057,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
@@ -1081,7 +1069,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1100,39 +1088,39 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>44051.64317129629</v>
+        <v>44059.5640162037</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>44051.6865625</v>
+        <v>44059.5640162037</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>44053.77083333334</v>
+        <v>44077.77083333334</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>44053.79626157408</v>
+        <v>44064.57136574074</v>
       </c>
       <c r="L15" s="2" t="n"/>
       <c r="M15" s="2" t="n"/>
       <c r="N15" s="2" t="n"/>
       <c r="O15" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>196465448</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Lorenzo Andrés Alfaro Bravo</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1147,47 +1135,53 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>44050.54297453703</v>
-      </c>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
+        <v>44059.5640162037</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>44059.5640162037</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>44070.77083333334</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>44063.56040509259</v>
+      </c>
       <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="n"/>
       <c r="N16" s="2" t="n"/>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1196,16 +1190,16 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>44050.46001157408</v>
+        <v>44058.52341435185</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>44051.54168981482</v>
+        <v>44059.53150462963</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>44051.77083333334</v>
+        <v>44061.77083333334</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>44051.54444444444</v>
+        <v>44062.5589699074</v>
       </c>
       <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="n"/>
@@ -1216,19 +1210,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1247,7 +1241,7 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>44050.46001157408</v>
+        <v>44058.52341435185</v>
       </c>
       <c r="I18" s="2" t="n"/>
       <c r="J18" s="2" t="n"/>
@@ -1261,10 +1255,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
@@ -1278,26 +1272,28 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>44050.46001157408</v>
+        <v>44053.78693287037</v>
       </c>
       <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
+      <c r="L19" s="3" t="n">
+        <v>44061.77083333334</v>
+      </c>
       <c r="M19" s="2" t="n"/>
       <c r="N19" s="2" t="n"/>
       <c r="O19" s="2" t="n">
@@ -1306,19 +1302,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1337,16 +1333,16 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>44050.46001157408</v>
+        <v>44051.64317129629</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>44051.54616898148</v>
+        <v>44051.68668981481</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>44051.77083333334</v>
+        <v>44055.77083333334</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>44051.6753587963</v>
+        <v>44056.53417824074</v>
       </c>
       <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="n"/>
@@ -1357,10 +1353,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
@@ -1369,7 +1365,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1384,15 +1380,21 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>44049.70388888889</v>
-      </c>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
+        <v>44051.64317129629</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>44051.6865625</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>44053.77083333334</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>44053.79626157408</v>
+      </c>
       <c r="L21" s="2" t="n"/>
       <c r="M21" s="2" t="n"/>
       <c r="N21" s="2" t="n"/>
@@ -1402,45 +1404,43 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>196465448</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Lorenzo Andrés Alfaro Bravo</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>ABC432</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>44049.70388888889</v>
+        <v>44050.54297453703</v>
       </c>
       <c r="I22" s="2" t="n"/>
       <c r="J22" s="2" t="n"/>
       <c r="K22" s="2" t="n"/>
-      <c r="L22" s="3" t="n">
-        <v>44050.77083333334</v>
-      </c>
+      <c r="L22" s="2" t="n"/>
       <c r="M22" s="2" t="n"/>
       <c r="N22" s="2" t="n"/>
       <c r="O22" s="2" t="n">
@@ -1449,14 +1449,14 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1466,31 +1466,25 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AAD832</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>44049.68787037037</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>44049.70165509259</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>44049.77083333334</v>
-      </c>
-      <c r="K23" s="3" t="n">
-        <v>44049.70182870371</v>
-      </c>
+        <v>44050.46001157408</v>
+      </c>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
       <c r="L23" s="2" t="n"/>
       <c r="M23" s="2" t="n"/>
       <c r="N23" s="2" t="n"/>
@@ -1500,14 +1494,14 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1517,12 +1511,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AA431</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -1531,7 +1525,7 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>44049.68787037037</v>
+        <v>44050.46001157408</v>
       </c>
       <c r="I24" s="2" t="n"/>
       <c r="J24" s="2" t="n"/>
@@ -1545,14 +1539,14 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1562,12 +1556,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1576,16 +1570,16 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>44049.68787037037</v>
+        <v>44050.46001157408</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>44049.70042824074</v>
+        <v>44051.54616898148</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>44049.77083333334</v>
+        <v>44051.77083333334</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>44049.70115740741</v>
+        <v>44051.6753587963</v>
       </c>
       <c r="L25" s="2" t="n"/>
       <c r="M25" s="2" t="n"/>
@@ -1596,14 +1590,14 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>19988806K</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1613,25 +1607,31 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>AAD832</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>44049.68787037037</v>
-      </c>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
+        <v>44050.46001157408</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>44051.54168981482</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>44051.77083333334</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>44051.54444444444</v>
+      </c>
       <c r="L26" s="2" t="n"/>
       <c r="M26" s="2" t="n"/>
       <c r="N26" s="2" t="n"/>
@@ -1641,29 +1641,29 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Notebook Asus 636-5</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>ZZZZZZ</t>
+          <t>ABC432</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>44047.92210648148</v>
+        <v>44049.70388888889</v>
       </c>
       <c r="I27" s="2" t="n"/>
       <c r="J27" s="2" t="n"/>
@@ -1686,43 +1686,45 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Notebook Asus 636-5</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>ZZZZZZ</t>
+          <t>AA431</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>44047.57730324074</v>
+        <v>44049.70388888889</v>
       </c>
       <c r="I28" s="2" t="n"/>
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
+      <c r="L28" s="3" t="n">
+        <v>44050.77083333334</v>
+      </c>
       <c r="M28" s="2" t="n"/>
       <c r="N28" s="2" t="n"/>
       <c r="O28" s="2" t="n">
@@ -1731,45 +1733,43 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>AAA192</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>44047.57011574074</v>
+        <v>44049.68787037037</v>
       </c>
       <c r="I29" s="2" t="n"/>
       <c r="J29" s="2" t="n"/>
       <c r="K29" s="2" t="n"/>
-      <c r="L29" s="3" t="n">
-        <v>44049.77083333334</v>
-      </c>
+      <c r="L29" s="2" t="n"/>
       <c r="M29" s="2" t="n"/>
       <c r="N29" s="2" t="n"/>
       <c r="O29" s="2" t="n">
@@ -1778,42 +1778,48 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>AAD832</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>44047.53828703704</v>
-      </c>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
+        <v>44049.68787037037</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>44049.70042824074</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>44049.70115740741</v>
+      </c>
       <c r="L30" s="2" t="n"/>
       <c r="M30" s="2" t="n"/>
       <c r="N30" s="2" t="n"/>
@@ -1823,45 +1829,43 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>ABC432</t>
+          <t>AA431</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>44046.57371527778</v>
+        <v>44049.68787037037</v>
       </c>
       <c r="I31" s="2" t="n"/>
       <c r="J31" s="2" t="n"/>
       <c r="K31" s="2" t="n"/>
-      <c r="L31" s="3" t="n">
-        <v>44049.77083333334</v>
-      </c>
+      <c r="L31" s="2" t="n"/>
       <c r="M31" s="2" t="n"/>
       <c r="N31" s="2" t="n"/>
       <c r="O31" s="2" t="n">
@@ -1870,19 +1874,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1901,16 +1905,16 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>44045.16469907408</v>
+        <v>44049.68787037037</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>44048.15038194445</v>
+        <v>44049.70165509259</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>44060.77083333334</v>
+        <v>44049.77083333334</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>44048.15122685185</v>
+        <v>44049.70182870371</v>
       </c>
       <c r="L32" s="2" t="n"/>
       <c r="M32" s="2" t="n"/>
@@ -1921,10 +1925,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
@@ -1938,31 +1942,25 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>ZZZZZZ</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>44044.60060185185</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>44044.60060185185</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>44050.77083333334</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>44050.4495949074</v>
-      </c>
+        <v>44047.92210648148</v>
+      </c>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
       <c r="L33" s="2" t="n"/>
       <c r="M33" s="2" t="n"/>
       <c r="N33" s="2" t="n"/>
@@ -1972,10 +1970,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
@@ -2003,7 +2001,7 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>44044.58608796296</v>
+        <v>44047.57730324074</v>
       </c>
       <c r="I34" s="2" t="n"/>
       <c r="J34" s="2" t="n"/>
@@ -2017,10 +2015,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
@@ -2034,32 +2032,28 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>44044.58331018518</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>44044.58331018518</v>
-      </c>
-      <c r="J35" s="3" t="n">
+        <v>44047.57011574074</v>
+      </c>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="3" t="n">
         <v>44049.77083333334</v>
       </c>
-      <c r="K35" s="3" t="n">
-        <v>44050.45241898148</v>
-      </c>
-      <c r="L35" s="2" t="n"/>
       <c r="M35" s="2" t="n"/>
       <c r="N35" s="2" t="n"/>
       <c r="O35" s="2" t="n">
@@ -2068,10 +2062,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
@@ -2085,31 +2079,25 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AA431</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>44044.58068287037</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>44044.58068287037</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>44046.77083333334</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <v>44049.5865162037</v>
-      </c>
+        <v>44047.53828703704</v>
+      </c>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
       <c r="L36" s="2" t="n"/>
       <c r="M36" s="2" t="n"/>
       <c r="N36" s="2" t="n"/>
@@ -2119,10 +2107,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
@@ -2146,22 +2134,18 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>44044.57987268519</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>44044.57987268519</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <v>44048.77083333334</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>44049.66491898148</v>
-      </c>
-      <c r="L37" s="2" t="n"/>
+        <v>44046.57371527778</v>
+      </c>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
       <c r="M37" s="2" t="n"/>
       <c r="N37" s="2" t="n"/>
       <c r="O37" s="2" t="n">
@@ -2170,29 +2154,29 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -2201,16 +2185,16 @@
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>44044.57987268519</v>
+        <v>44045.16469907408</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>44044.57987268519</v>
+        <v>44048.15038194445</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>44056.77083333334</v>
+        <v>44060.77083333334</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>44059.50581018518</v>
+        <v>44048.15122685185</v>
       </c>
       <c r="L38" s="2" t="n"/>
       <c r="M38" s="2" t="n"/>
@@ -2221,19 +2205,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -2248,15 +2232,21 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>44044.14667824074</v>
-      </c>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
+        <v>44044.60060185185</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>44044.60060185185</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>44050.77083333334</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>44050.4495949074</v>
+      </c>
       <c r="L39" s="2" t="n"/>
       <c r="M39" s="2" t="n"/>
       <c r="N39" s="2" t="n"/>
@@ -2266,38 +2256,38 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>ZZZZZZ</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>44044.14667824074</v>
+        <v>44044.58608796296</v>
       </c>
       <c r="I40" s="2" t="n"/>
       <c r="J40" s="2" t="n"/>
@@ -2311,42 +2301,48 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AAD832</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H41" s="3" t="n">
-        <v>44044.14667824074</v>
-      </c>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="n"/>
-      <c r="K41" s="2" t="n"/>
+        <v>44044.58331018518</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>44044.58331018518</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>44049.77083333334</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>44050.45241898148</v>
+      </c>
       <c r="L41" s="2" t="n"/>
       <c r="M41" s="2" t="n"/>
       <c r="N41" s="2" t="n"/>
@@ -2356,19 +2352,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -2383,15 +2379,21 @@
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H42" s="3" t="n">
-        <v>44044.14667824074</v>
-      </c>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
+        <v>44044.58068287037</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>44044.58068287037</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>44046.77083333334</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>44049.5865162037</v>
+      </c>
       <c r="L42" s="2" t="n"/>
       <c r="M42" s="2" t="n"/>
       <c r="N42" s="2" t="n"/>
@@ -2401,19 +2403,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -2428,15 +2430,21 @@
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H43" s="3" t="n">
-        <v>44044.13378472222</v>
-      </c>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
+        <v>44044.57987268519</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>44044.57987268519</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>44048.77083333334</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>44049.66491898148</v>
+      </c>
       <c r="L43" s="2" t="n"/>
       <c r="M43" s="2" t="n"/>
       <c r="N43" s="2" t="n"/>
@@ -2446,42 +2454,48 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>198182354</t>
+          <t>19889608K</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Víctor Esteban Sánchez Ulloa</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Notebook Asus 636-5</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>ZZZZZZ</t>
+          <t>AA431</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H44" s="3" t="n">
-        <v>44044.13378472222</v>
-      </c>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
+        <v>44044.57987268519</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>44044.57987268519</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>44056.77083333334</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>44059.50581018518</v>
+      </c>
       <c r="L44" s="2" t="n"/>
       <c r="M44" s="2" t="n"/>
       <c r="N44" s="2" t="n"/>
@@ -2491,48 +2505,42 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H45" s="3" t="n">
-        <v>44043.85885416667</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>44043.98478009259</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>44043.75</v>
-      </c>
-      <c r="K45" s="3" t="n">
-        <v>44043.81805555556</v>
-      </c>
+        <v>44044.14667824074</v>
+      </c>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="n"/>
       <c r="M45" s="2" t="n"/>
       <c r="N45" s="2" t="n"/>
@@ -2542,19 +2550,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -2569,11 +2577,11 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H46" s="3" t="n">
-        <v>44043.85885416667</v>
+        <v>44044.14667824074</v>
       </c>
       <c r="I46" s="2" t="n"/>
       <c r="J46" s="2" t="n"/>
@@ -2587,48 +2595,42 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>AAA192</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H47" s="3" t="n">
-        <v>44043.8446412037</v>
-      </c>
-      <c r="I47" s="3" t="n">
-        <v>44043.97052083333</v>
-      </c>
-      <c r="J47" s="3" t="n">
-        <v>44053.75</v>
-      </c>
-      <c r="K47" s="3" t="n">
-        <v>44043.97069444445</v>
-      </c>
+        <v>44044.14667824074</v>
+      </c>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
       <c r="L47" s="2" t="n"/>
       <c r="M47" s="2" t="n"/>
       <c r="N47" s="2" t="n"/>
@@ -2638,38 +2640,38 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>AAA351</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H48" s="3" t="n">
-        <v>44043.8446412037</v>
+        <v>44044.14667824074</v>
       </c>
       <c r="I48" s="2" t="n"/>
       <c r="J48" s="2" t="n"/>
@@ -2683,38 +2685,38 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Drone Parrot Bebop 2</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>AAD832</t>
+          <t>ABC432</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H49" s="3" t="n">
-        <v>44043.56954861111</v>
+        <v>44044.13378472222</v>
       </c>
       <c r="I49" s="2" t="n"/>
       <c r="J49" s="2" t="n"/>
@@ -2728,38 +2730,38 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>198182354</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Víctor Esteban Sánchez Ulloa</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>ZZZZZZ</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Cancelada</t>
         </is>
       </c>
       <c r="H50" s="3" t="n">
-        <v>44040.55811342593</v>
+        <v>44044.13378472222</v>
       </c>
       <c r="I50" s="2" t="n"/>
       <c r="J50" s="2" t="n"/>
@@ -2773,42 +2775,48 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>AAD832</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H51" s="3" t="n">
-        <v>44040.55811342593</v>
-      </c>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
+        <v>44043.85885416667</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>44043.98478009259</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>44043.81805555556</v>
+      </c>
       <c r="L51" s="2" t="n"/>
       <c r="M51" s="2" t="n"/>
       <c r="N51" s="2" t="n"/>
@@ -2818,19 +2826,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -2849,7 +2857,7 @@
         </is>
       </c>
       <c r="H52" s="3" t="n">
-        <v>44036.7565625</v>
+        <v>44043.85885416667</v>
       </c>
       <c r="I52" s="2" t="n"/>
       <c r="J52" s="2" t="n"/>
@@ -2863,42 +2871,48 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>AAA351</t>
+          <t>AAA192</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Rechazada</t>
+          <t>Finalizada</t>
         </is>
       </c>
       <c r="H53" s="3" t="n">
-        <v>44036.7565625</v>
-      </c>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
+        <v>44043.8446412037</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>44043.97052083333</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>44053.75</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>44043.97069444445</v>
+      </c>
       <c r="L53" s="2" t="n"/>
       <c r="M53" s="2" t="n"/>
       <c r="N53" s="2" t="n"/>
@@ -2908,19 +2922,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
@@ -2935,18 +2949,16 @@
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Cancelada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H54" s="3" t="n">
-        <v>44034.6940625</v>
+        <v>44043.8446412037</v>
       </c>
       <c r="I54" s="2" t="n"/>
       <c r="J54" s="2" t="n"/>
       <c r="K54" s="2" t="n"/>
-      <c r="L54" s="3" t="n">
-        <v>44041</v>
-      </c>
+      <c r="L54" s="2" t="n"/>
       <c r="M54" s="2" t="n"/>
       <c r="N54" s="2" t="n"/>
       <c r="O54" s="2" t="n">
@@ -2955,48 +2967,42 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Drone Parrot Bebop 2</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>ABC432</t>
+          <t>AAD832</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Rechazada</t>
         </is>
       </c>
       <c r="H55" s="3" t="n">
-        <v>44031.83824074074</v>
-      </c>
-      <c r="I55" s="3" t="n">
-        <v>44041.55918981481</v>
-      </c>
-      <c r="J55" s="3" t="n">
-        <v>44041.75</v>
-      </c>
-      <c r="K55" s="3" t="n">
-        <v>44049.58769675926</v>
-      </c>
+        <v>44043.56954861111</v>
+      </c>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
       <c r="L55" s="2" t="n"/>
       <c r="M55" s="2" t="n"/>
       <c r="N55" s="2" t="n"/>
@@ -3004,6 +3010,284 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>44040.55811342593</v>
+      </c>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>44040.55811342593</v>
+      </c>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+      <c r="O57" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Router TP-LONK TL-WN722N</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>44036.7565625</v>
+      </c>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>Router TP-LONK TL-WN722N</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>AAA351</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>Rechazada</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>44036.7565625</v>
+      </c>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>Celular Samsung Galaxy S4</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>AAD832</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Cancelada</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>44034.6940625</v>
+      </c>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="3" t="n">
+        <v>44041</v>
+      </c>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>19889608K</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Ignacio Toro Severino</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>Drone Parrot Bebop 2</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>ABC432</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Finalizada</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>44031.83824074074</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>44041.55918981481</v>
+      </c>
+      <c r="J61" s="3" t="n">
+        <v>44041.75</v>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>44049.58769675926</v>
+      </c>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
